--- a/biology/Botanique/Salix_capusii/Salix_capusii.xlsx
+++ b/biology/Botanique/Salix_capusii/Salix_capusii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Salix capusii est une espèce de plantes à fleurs de la famille des Salicaceae. C'est un grand arbre avec des branches brun-châtaigne et des feuilles gris bleu de 4 à 5 cm de long. L'espèce est native d'Asie : Afghanistan, Tadjikistan, Pakistan et  Chine.
 </t>
@@ -511,11 +523,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Salix capusii peut atteindre 6 mètres de haut. Il présente une écorce gris mat. Les jeunes feuilles sont cotonneuses. Les jeunes branches sont dorées et finement velues[2].
-L'espèce se rencontre en Afghanistan, au Tadjikistan, au Pakistan et dans la province chinoise du Xinjiang[3]. En Chine, on la trouve à une altitude comprise entre 1 000 et 2 800 mètres[2].
-Synonymes : Salix coerulea E.L.Wolf et Salix niedzwieckii Goerz[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Salix capusii peut atteindre 6 mètres de haut. Il présente une écorce gris mat. Les jeunes feuilles sont cotonneuses. Les jeunes branches sont dorées et finement velues.
+L'espèce se rencontre en Afghanistan, au Tadjikistan, au Pakistan et dans la province chinoise du Xinjiang. En Chine, on la trouve à une altitude comprise entre 1 000 et 2 800 mètres.
+Synonymes : Salix coerulea E.L.Wolf et Salix niedzwieckii Goerz.
 </t>
         </is>
       </c>
